--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1505443.634710384</v>
+        <v>1450491.745426289</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013174</v>
+        <v>408938.3872013177</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079586</v>
+        <v>11497228.11079584</v>
       </c>
     </row>
     <row r="9">
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>92.35956081191914</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>240.4660086744117</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>83.93099442151187</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2180566268438</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.00010435294848</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>152.3549420496104</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>221.7685724598865</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>70.47331034297937</v>
       </c>
       <c r="G14" t="n">
         <v>417.3985592667085</v>
@@ -1657,7 +1657,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.329915919761465</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>211.8662302997449</v>
@@ -1751,10 +1751,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>111.2849038890633</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>8.916258666857143</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.00010435294872</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>27.05677499767245</v>
+        <v>69.38117083686792</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
@@ -1864,7 +1864,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>27.67799469514078</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>96.91289937729499</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>237.1773944157285</v>
@@ -1988,10 +1988,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.916258666857136</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>7.226885210985838</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>76.30890309903104</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>149.0645434643621</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>164.1023207247648</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -2174,13 +2174,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>189.4060272326275</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>80.39631948615283</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>224.3942962732598</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>140.8406500348106</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>55.08125065520306</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -2414,10 +2414,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>91.734476923068</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>109.7969997889527</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>152.3549420496105</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>76.53519509961448</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>79.01440406444877</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>220.4670496592927</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -2651,10 +2651,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>126.7420244747241</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>54.10080546393171</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>45.33637689981715</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>75.61813689207861</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>179.0602248651136</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>9.976326999941547</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>84.29594815633604</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350706</v>
+        <v>72.66848711824045</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4.376832222376643</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>7.226885210985824</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>131.5071865524455</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
@@ -3046,10 +3046,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>78.64444720260856</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>79.59445184175503</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>185.9094093102256</v>
       </c>
     </row>
     <row r="34">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>152.3549420496105</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>52.42857711587125</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>93.7923789421933</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>176.94202626057</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -3347,13 +3347,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>139.4773282199548</v>
       </c>
       <c r="T36" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -3410,10 +3410,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>33.65771117632139</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>129.4825785166959</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>168.0550137836253</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>169.8679212068082</v>
+        <v>166.2793663071381</v>
       </c>
       <c r="D38" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104.2084530481574</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -3596,13 +3596,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>174.8532990665432</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>123.1434003800102</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>80.39631948615289</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>34.83368327300488</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>198.8556262854485</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -3833,13 +3833,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>62.72980802168689</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>134.8858124445514</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>129.4825785166958</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>134.6306251750098</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>96.59422666770232</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>32.63909941789021</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>44.06996579808412</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -4121,7 +4121,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>131.0804113283487</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.31465285444516</v>
+        <v>1072.239033790183</v>
       </c>
       <c r="C11" t="n">
-        <v>34.31465285444516</v>
+        <v>1072.239033790183</v>
       </c>
       <c r="D11" t="n">
-        <v>34.31465285444516</v>
+        <v>1072.239033790183</v>
       </c>
       <c r="E11" t="n">
-        <v>34.31465285444516</v>
+        <v>1072.239033790183</v>
       </c>
       <c r="F11" t="n">
-        <v>34.31465285444516</v>
+        <v>978.9465481215775</v>
       </c>
       <c r="G11" t="n">
-        <v>34.31465285444516</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="H11" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K11" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
@@ -5071,22 +5071,22 @@
         <v>1413.548593210149</v>
       </c>
       <c r="T11" t="n">
-        <v>1195.201146295158</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U11" t="n">
-        <v>942.6401640759913</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="V11" t="n">
-        <v>618.5191705313932</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="W11" t="n">
-        <v>277.2096111114267</v>
+        <v>1072.239033790183</v>
       </c>
       <c r="X11" t="n">
-        <v>34.31465285444516</v>
+        <v>1072.239033790183</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.31465285444516</v>
+        <v>1072.239033790183</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1069.118384851047</v>
+        <v>292.6566389769821</v>
       </c>
       <c r="C12" t="n">
-        <v>879.7061105840106</v>
+        <v>292.6566389769821</v>
       </c>
       <c r="D12" t="n">
-        <v>718.9259943450423</v>
+        <v>292.6566389769821</v>
       </c>
       <c r="E12" t="n">
-        <v>545.3627904664568</v>
+        <v>119.0934350983966</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9350741837009</v>
+        <v>119.0934350983966</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K12" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443595</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M12" t="n">
-        <v>873.305863297421</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N12" t="n">
         <v>1276.539627797432</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.953100567611</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
@@ -5153,19 +5153,19 @@
         <v>1448.884598007117</v>
       </c>
       <c r="U12" t="n">
-        <v>1448.884598007117</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V12" t="n">
-        <v>1448.884598007117</v>
+        <v>966.2317542382982</v>
       </c>
       <c r="W12" t="n">
-        <v>1448.884598007117</v>
+        <v>696.8331849685895</v>
       </c>
       <c r="X12" t="n">
-        <v>1448.884598007117</v>
+        <v>696.8331849685895</v>
       </c>
       <c r="Y12" t="n">
-        <v>1247.654237777982</v>
+        <v>471.1924919039172</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.81980876651434</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="C13" t="n">
-        <v>84.81980876651434</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="D13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N13" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V13" t="n">
-        <v>84.81980876651434</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="W13" t="n">
-        <v>84.81980876651434</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="X13" t="n">
-        <v>84.81980876651434</v>
+        <v>180.9637945218297</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.81980876651434</v>
+        <v>180.9637945218297</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1610.227176505315</v>
+        <v>1050.131710084183</v>
       </c>
       <c r="C14" t="n">
-        <v>1610.227176505315</v>
+        <v>1050.131710084183</v>
       </c>
       <c r="D14" t="n">
-        <v>1610.227176505315</v>
+        <v>1050.131710084183</v>
       </c>
       <c r="E14" t="n">
-        <v>1386.218517454924</v>
+        <v>1050.131710084183</v>
       </c>
       <c r="F14" t="n">
         <v>978.9465481215775</v>
@@ -5305,25 +5305,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T14" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U14" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="V14" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="W14" t="n">
-        <v>1610.227176505315</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="X14" t="n">
-        <v>1610.227176505315</v>
+        <v>1050.131710084183</v>
       </c>
       <c r="Y14" t="n">
-        <v>1610.227176505315</v>
+        <v>1050.131710084183</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>37.67820428854765</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="C15" t="n">
-        <v>34.31465285444516</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="D15" t="n">
-        <v>34.31465285444516</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H15" t="n">
         <v>34.31465285444516</v>
@@ -5363,7 +5363,7 @@
         <v>215.5091216889814</v>
       </c>
       <c r="L15" t="n">
-        <v>304.6946924676432</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M15" t="n">
         <v>679.5863020207048</v>
@@ -5381,28 +5381,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T15" t="n">
-        <v>1234.878304775051</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U15" t="n">
-        <v>995.3051791025982</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V15" t="n">
-        <v>752.2254610062323</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W15" t="n">
-        <v>482.8268917365236</v>
+        <v>749.6749364516648</v>
       </c>
       <c r="X15" t="n">
-        <v>263.31889735322</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="Y15" t="n">
-        <v>37.67820428854765</v>
+        <v>637.2659426243282</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="C16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="D16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="E16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="F16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="G16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="H16" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>84.81980876651457</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
         <v>34.31465285444516</v>
@@ -5457,31 +5457,31 @@
         <v>334.8576753800222</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R16" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S16" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T16" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="W16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="X16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.81980876651457</v>
+        <v>43.32097474015944</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1413.548593210149</v>
+        <v>1268.917617085349</v>
       </c>
       <c r="C17" t="n">
-        <v>1413.548593210149</v>
+        <v>1268.917617085349</v>
       </c>
       <c r="D17" t="n">
-        <v>1413.548593210149</v>
+        <v>1268.917617085349</v>
       </c>
       <c r="E17" t="n">
-        <v>1386.218517454924</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="F17" t="n">
-        <v>978.9465481215775</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3318417915689</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I17" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602993</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K17" t="n">
         <v>253.8975067193751</v>
@@ -5524,7 +5524,7 @@
         <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157783</v>
@@ -5542,25 +5542,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S17" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T17" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U17" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V17" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W17" t="n">
-        <v>1413.548593210149</v>
+        <v>1268.917617085349</v>
       </c>
       <c r="X17" t="n">
-        <v>1413.548593210149</v>
+        <v>1268.917617085349</v>
       </c>
       <c r="Y17" t="n">
-        <v>1413.548593210149</v>
+        <v>1268.917617085349</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>482.8268917365241</v>
+        <v>251.6844975206135</v>
       </c>
       <c r="C18" t="n">
-        <v>482.8268917365241</v>
+        <v>62.27222325357727</v>
       </c>
       <c r="D18" t="n">
-        <v>482.8268917365241</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8268917365241</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F18" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I18" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K18" t="n">
-        <v>34.31465285444516</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>317.2197849098234</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M18" t="n">
-        <v>679.5863020207053</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O18" t="n">
         <v>1395.953100567611</v>
@@ -5624,22 +5624,22 @@
         <v>1448.884598007117</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775052</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025987</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062328</v>
+        <v>966.2317542382982</v>
       </c>
       <c r="W18" t="n">
-        <v>482.8268917365241</v>
+        <v>696.8331849685895</v>
       </c>
       <c r="X18" t="n">
-        <v>482.8268917365241</v>
+        <v>477.3251905852859</v>
       </c>
       <c r="Y18" t="n">
-        <v>482.8268917365241</v>
+        <v>251.6844975206135</v>
       </c>
     </row>
     <row r="19">
@@ -5676,7 +5676,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
         <v>105.4471208306433</v>
@@ -5685,40 +5685,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32097474015944</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V19" t="n">
-        <v>43.32097474015944</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W19" t="n">
-        <v>43.32097474015944</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="X19" t="n">
-        <v>43.32097474015944</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.32097474015944</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>575.4404706159872</v>
+        <v>908.2402835891681</v>
       </c>
       <c r="C20" t="n">
-        <v>221.6975439683318</v>
+        <v>908.2402835891681</v>
       </c>
       <c r="D20" t="n">
-        <v>221.6975439683318</v>
+        <v>908.2402835891681</v>
       </c>
       <c r="E20" t="n">
-        <v>221.6975439683318</v>
+        <v>533.0090592844851</v>
       </c>
       <c r="F20" t="n">
-        <v>221.6975439683318</v>
+        <v>533.0090592844851</v>
       </c>
       <c r="G20" t="n">
-        <v>221.6975439683318</v>
+        <v>111.3943529544765</v>
       </c>
       <c r="H20" t="n">
-        <v>221.6975439683318</v>
+        <v>111.3943529544765</v>
       </c>
       <c r="I20" t="n">
         <v>34.31465285444516</v>
@@ -5758,19 +5758,19 @@
         <v>253.8975067193751</v>
       </c>
       <c r="L20" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M20" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q20" t="n">
         <v>1715.732642722258</v>
@@ -5779,25 +5779,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T20" t="n">
-        <v>1262.978347286551</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U20" t="n">
-        <v>1262.978347286551</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V20" t="n">
-        <v>938.857353741953</v>
+        <v>1286.106182960717</v>
       </c>
       <c r="W20" t="n">
-        <v>938.857353741953</v>
+        <v>1286.106182960717</v>
       </c>
       <c r="X20" t="n">
-        <v>575.4404706159872</v>
+        <v>1286.106182960717</v>
       </c>
       <c r="Y20" t="n">
-        <v>575.4404706159872</v>
+        <v>1286.106182960717</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1069.118384851047</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="C21" t="n">
-        <v>879.7061105840106</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D21" t="n">
-        <v>718.9259943450423</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3627904664568</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I21" t="n">
         <v>34.31465285444516</v>
@@ -5843,40 +5843,40 @@
         <v>853.2112150416077</v>
       </c>
       <c r="N21" t="n">
-        <v>1256.444979541619</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O21" t="n">
-        <v>1395.953100567611</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P21" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q21" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S21" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T21" t="n">
-        <v>1234.878304775052</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U21" t="n">
-        <v>1234.878304775052</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V21" t="n">
-        <v>1234.878304775052</v>
+        <v>1017.992252907767</v>
       </c>
       <c r="W21" t="n">
-        <v>1234.878304775052</v>
+        <v>748.5936836380586</v>
       </c>
       <c r="X21" t="n">
-        <v>1234.878304775052</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="Y21" t="n">
-        <v>1234.878304775052</v>
+        <v>529.0856892547549</v>
       </c>
     </row>
     <row r="22">
@@ -5913,7 +5913,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L22" t="n">
         <v>105.4471208306433</v>
@@ -5931,28 +5931,28 @@
         <v>334.8576753800222</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R22" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S22" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T22" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U22" t="n">
-        <v>260.9755581809702</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="V22" t="n">
-        <v>260.9755581809702</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444516</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444516</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y22" t="n">
         <v>34.31465285444516</v>
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>562.8815436069452</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C23" t="n">
-        <v>562.8815436069452</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D23" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E23" t="n">
-        <v>221.6975439683318</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F23" t="n">
-        <v>221.6975439683318</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G23" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K23" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389717</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292778</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157782</v>
@@ -6013,28 +6013,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1573.469359858813</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295157</v>
+        <v>1573.469359858813</v>
       </c>
       <c r="U23" t="n">
-        <v>942.6401640759908</v>
+        <v>1573.469359858813</v>
       </c>
       <c r="V23" t="n">
-        <v>618.5191705313928</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="W23" t="n">
-        <v>562.8815436069452</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="X23" t="n">
-        <v>562.8815436069452</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="Y23" t="n">
-        <v>562.8815436069452</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1069.118384851047</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="C24" t="n">
-        <v>879.7061105840106</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="D24" t="n">
-        <v>718.9259943450423</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="E24" t="n">
-        <v>545.3627904664568</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F24" t="n">
-        <v>384.9350741837009</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H24" t="n">
         <v>115.9747045751594</v>
@@ -6074,13 +6074,13 @@
         <v>195.4144734331679</v>
       </c>
       <c r="L24" t="n">
-        <v>478.319605488546</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M24" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N24" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O24" t="n">
         <v>1486.492278349808</v>
@@ -6092,28 +6092,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T24" t="n">
-        <v>1627.958867440572</v>
+        <v>1623.071554921179</v>
       </c>
       <c r="U24" t="n">
-        <v>1627.958867440572</v>
+        <v>1383.498429248726</v>
       </c>
       <c r="V24" t="n">
-        <v>1627.958867440572</v>
+        <v>1140.41871115236</v>
       </c>
       <c r="W24" t="n">
-        <v>1358.560298170863</v>
+        <v>871.0201418826514</v>
       </c>
       <c r="X24" t="n">
-        <v>1358.560298170863</v>
+        <v>651.5121474993477</v>
       </c>
       <c r="Y24" t="n">
-        <v>1247.654237777982</v>
+        <v>425.8714544346753</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>1561.838761864065</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>809.0541084987431</v>
+        <v>1005.464611381247</v>
       </c>
       <c r="C26" t="n">
-        <v>455.3111818510877</v>
+        <v>1005.464611381247</v>
       </c>
       <c r="D26" t="n">
-        <v>114.1271822124742</v>
+        <v>664.2806117426333</v>
       </c>
       <c r="E26" t="n">
-        <v>34.31465285444516</v>
+        <v>664.2806117426333</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444516</v>
+        <v>257.0086424092863</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K26" t="n">
-        <v>253.897506719375</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L26" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M26" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292791</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U26" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="V26" t="n">
-        <v>1195.201146295157</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="W26" t="n">
-        <v>1195.201146295157</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="X26" t="n">
-        <v>1195.201146295157</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="Y26" t="n">
-        <v>809.0541084987431</v>
+        <v>1005.464611381247</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>949.6270488192655</v>
+        <v>987.4583331303328</v>
       </c>
       <c r="C27" t="n">
-        <v>760.2147745522292</v>
+        <v>798.0460588632965</v>
       </c>
       <c r="D27" t="n">
-        <v>599.4346583132609</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="E27" t="n">
-        <v>425.8714544346753</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F27" t="n">
-        <v>265.4437381519194</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G27" t="n">
-        <v>115.9747045751594</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K27" t="n">
-        <v>54.40930111025867</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>337.3144331656368</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186984</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O27" t="n">
-        <v>1428.572841265604</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P27" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.958867440572</v>
+        <v>1499.936620496407</v>
       </c>
       <c r="T27" t="n">
-        <v>1627.958867440572</v>
+        <v>1499.936620496407</v>
       </c>
       <c r="U27" t="n">
-        <v>1627.958867440572</v>
+        <v>1499.936620496407</v>
       </c>
       <c r="V27" t="n">
-        <v>1627.958867440572</v>
+        <v>1256.856902400041</v>
       </c>
       <c r="W27" t="n">
-        <v>1573.311589194177</v>
+        <v>987.4583331303328</v>
       </c>
       <c r="X27" t="n">
-        <v>1353.803594810873</v>
+        <v>987.4583331303328</v>
       </c>
       <c r="Y27" t="n">
-        <v>1128.162901746201</v>
+        <v>987.4583331303328</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H28" t="n">
-        <v>155.4466444053068</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I28" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K28" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L28" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M28" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W28" t="n">
-        <v>334.857675380022</v>
+        <v>258.475718923377</v>
       </c>
       <c r="X28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="Y28" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>932.5630660962519</v>
+        <v>215.1835668596104</v>
       </c>
       <c r="C29" t="n">
-        <v>932.5630660962519</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D29" t="n">
-        <v>932.5630660962519</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E29" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F29" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G29" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602976</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292778</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
         <v>1715.732642722258</v>
@@ -6496,19 +6496,19 @@
         <v>1195.201146295157</v>
       </c>
       <c r="U29" t="n">
-        <v>942.6401640759908</v>
+        <v>942.640164075991</v>
       </c>
       <c r="V29" t="n">
-        <v>932.5630660962519</v>
+        <v>942.640164075991</v>
       </c>
       <c r="W29" t="n">
-        <v>932.5630660962519</v>
+        <v>601.3306046560244</v>
       </c>
       <c r="X29" t="n">
-        <v>932.5630660962519</v>
+        <v>601.3306046560244</v>
       </c>
       <c r="Y29" t="n">
-        <v>932.5630660962519</v>
+        <v>215.1835668596104</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>980.7026033525988</v>
+        <v>257.1861986718522</v>
       </c>
       <c r="C30" t="n">
-        <v>791.2903290855625</v>
+        <v>257.1861986718522</v>
       </c>
       <c r="D30" t="n">
-        <v>630.5102128465942</v>
+        <v>257.1861986718522</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3627904664568</v>
+        <v>257.1861986718522</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9350741837009</v>
+        <v>257.1861986718522</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4660406069408</v>
+        <v>107.7171650950921</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9747045751594</v>
+        <v>107.7171650950921</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J30" t="n">
-        <v>54.40930111025867</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K30" t="n">
-        <v>112.3287381944631</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L30" t="n">
-        <v>395.2338702498412</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M30" t="n">
-        <v>770.1254798029028</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N30" t="n">
-        <v>1173.359244302914</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.492278349808</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P30" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.958867440572</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="T30" t="n">
-        <v>1627.958867440572</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U30" t="n">
-        <v>1627.958867440572</v>
+        <v>995.3051791025991</v>
       </c>
       <c r="V30" t="n">
-        <v>1384.879149344206</v>
+        <v>752.2254610062332</v>
       </c>
       <c r="W30" t="n">
-        <v>1384.879149344206</v>
+        <v>482.8268917365245</v>
       </c>
       <c r="X30" t="n">
-        <v>1384.879149344206</v>
+        <v>482.8268917365245</v>
       </c>
       <c r="Y30" t="n">
-        <v>1159.238456279534</v>
+        <v>257.1861986718522</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C31" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D31" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E31" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F31" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G31" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H31" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I31" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K31" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L31" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M31" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P31" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S31" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T31" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U31" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V31" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W31" t="n">
-        <v>260.97555818097</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="X31" t="n">
-        <v>260.97555818097</v>
+        <v>41.61453690594601</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.97555818097</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1519.054059427092</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="C32" t="n">
-        <v>1519.054059427092</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="D32" t="n">
-        <v>1519.054059427092</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="E32" t="n">
-        <v>1386.218517454924</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="F32" t="n">
-        <v>978.9465481215775</v>
+        <v>535.3681947426443</v>
       </c>
       <c r="G32" t="n">
-        <v>557.3318417915689</v>
+        <v>113.7534884126356</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I32" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602985</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K32" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292784</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P32" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S32" t="n">
-        <v>1519.054059427092</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T32" t="n">
-        <v>1519.054059427092</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U32" t="n">
-        <v>1519.054059427092</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="V32" t="n">
-        <v>1519.054059427092</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="W32" t="n">
-        <v>1519.054059427092</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="X32" t="n">
-        <v>1519.054059427092</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="Y32" t="n">
-        <v>1519.054059427092</v>
+        <v>942.6401640759913</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>638.4686834428283</v>
+        <v>289.5379084537449</v>
       </c>
       <c r="C33" t="n">
-        <v>449.0564091757919</v>
+        <v>289.5379084537449</v>
       </c>
       <c r="D33" t="n">
-        <v>288.2762929368237</v>
+        <v>289.5379084537449</v>
       </c>
       <c r="E33" t="n">
-        <v>114.7130890582381</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="F33" t="n">
-        <v>114.7130890582381</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G33" t="n">
-        <v>114.7130890582381</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H33" t="n">
-        <v>114.7130890582381</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I33" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K33" t="n">
-        <v>34.31465285444516</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L33" t="n">
-        <v>317.2197849098233</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M33" t="n">
-        <v>692.1113944628848</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q33" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S33" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T33" t="n">
-        <v>1501.726349490192</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U33" t="n">
-        <v>1262.153223817739</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V33" t="n">
-        <v>1262.153223817739</v>
+        <v>966.2317542382982</v>
       </c>
       <c r="W33" t="n">
-        <v>1262.153223817739</v>
+        <v>696.8331849685895</v>
       </c>
       <c r="X33" t="n">
-        <v>1042.645229434436</v>
+        <v>477.3251905852859</v>
       </c>
       <c r="Y33" t="n">
-        <v>817.0045363697634</v>
+        <v>289.5379084537449</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C34" t="n">
-        <v>1561.838761864065</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L34" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M34" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V34" t="n">
-        <v>1715.732642722258</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="W34" t="n">
-        <v>1715.732642722258</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="X34" t="n">
-        <v>1715.732642722258</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="Y34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1150.856285470723</v>
+        <v>482.7973562113867</v>
       </c>
       <c r="C35" t="n">
-        <v>797.1133588230673</v>
+        <v>129.0544295637313</v>
       </c>
       <c r="D35" t="n">
-        <v>455.9293591844538</v>
+        <v>129.0544295637313</v>
       </c>
       <c r="E35" t="n">
-        <v>455.9293591844538</v>
+        <v>129.0544295637313</v>
       </c>
       <c r="F35" t="n">
-        <v>455.9293591844538</v>
+        <v>129.0544295637313</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>129.0544295637313</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444516</v>
+        <v>129.0544295637313</v>
       </c>
       <c r="I35" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V35" t="n">
-        <v>1537.003323267137</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W35" t="n">
-        <v>1537.003323267137</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X35" t="n">
-        <v>1537.003323267137</v>
+        <v>1246.81029337935</v>
       </c>
       <c r="Y35" t="n">
-        <v>1150.856285470723</v>
+        <v>860.6632555829356</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>223.7269271214814</v>
+        <v>450.3180246927132</v>
       </c>
       <c r="C36" t="n">
-        <v>34.31465285444516</v>
+        <v>450.3180246927132</v>
       </c>
       <c r="D36" t="n">
-        <v>34.31465285444516</v>
+        <v>289.5379084537449</v>
       </c>
       <c r="E36" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="F36" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G36" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I36" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K36" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L36" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M36" t="n">
-        <v>712.2060427186984</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N36" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O36" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S36" t="n">
-        <v>1627.958867440572</v>
+        <v>1574.846452601092</v>
       </c>
       <c r="T36" t="n">
-        <v>1413.952574208507</v>
+        <v>1360.840159369026</v>
       </c>
       <c r="U36" t="n">
-        <v>1174.379448536054</v>
+        <v>1360.840159369026</v>
       </c>
       <c r="V36" t="n">
-        <v>931.2997304396879</v>
+        <v>1117.760441272661</v>
       </c>
       <c r="W36" t="n">
-        <v>661.9011611699792</v>
+        <v>848.3618720029519</v>
       </c>
       <c r="X36" t="n">
-        <v>627.9034731130889</v>
+        <v>628.8538776196483</v>
       </c>
       <c r="Y36" t="n">
-        <v>402.2627800484165</v>
+        <v>628.8538776196483</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1715.732642722258</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="C37" t="n">
-        <v>1715.732642722258</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="D37" t="n">
-        <v>1715.732642722258</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="E37" t="n">
-        <v>1715.732642722258</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="F37" t="n">
-        <v>1584.94215937206</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1329.585604925844</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="C38" t="n">
-        <v>1158.001846131089</v>
+        <v>1132.747656646304</v>
       </c>
       <c r="D38" t="n">
-        <v>816.8178464924752</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E38" t="n">
-        <v>441.5866221877922</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F38" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H38" t="n">
         <v>34.31465285444516</v>
@@ -7174,22 +7174,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887603044</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193756</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292784</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N38" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
         <v>1650.639799716936</v>
@@ -7201,25 +7201,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="X38" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="Y38" t="n">
-        <v>1329.585604925844</v>
+        <v>1300.7066125121</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1069.118384851047</v>
+        <v>557.717847282823</v>
       </c>
       <c r="C39" t="n">
-        <v>879.7061105840106</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9259943450423</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025867</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M39" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N39" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O39" t="n">
         <v>1486.492278349808</v>
@@ -7277,28 +7277,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T39" t="n">
-        <v>1413.952574208507</v>
+        <v>1272.265104000508</v>
       </c>
       <c r="U39" t="n">
-        <v>1174.379448536054</v>
+        <v>1272.265104000508</v>
       </c>
       <c r="V39" t="n">
-        <v>1174.379448536054</v>
+        <v>1272.265104000508</v>
       </c>
       <c r="W39" t="n">
-        <v>1174.379448536054</v>
+        <v>1002.866534730799</v>
       </c>
       <c r="X39" t="n">
-        <v>1174.379448536054</v>
+        <v>783.3585403474954</v>
       </c>
       <c r="Y39" t="n">
-        <v>1174.379448536054</v>
+        <v>557.717847282823</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655666</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X40" t="n">
-        <v>1634.524239200892</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>664.1550519612797</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="C41" t="n">
-        <v>664.1550519612797</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D41" t="n">
-        <v>664.1550519612797</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E41" t="n">
-        <v>664.1550519612797</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F41" t="n">
-        <v>256.8830826279327</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G41" t="n">
-        <v>256.8830826279327</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K41" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292784</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O41" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
         <v>1650.639799716936</v>
@@ -7447,16 +7447,16 @@
         <v>1715.732642722258</v>
       </c>
       <c r="V41" t="n">
-        <v>1391.61164917766</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W41" t="n">
-        <v>1050.302089757694</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X41" t="n">
-        <v>1050.302089757694</v>
+        <v>1173.558814327091</v>
       </c>
       <c r="Y41" t="n">
-        <v>664.1550519612797</v>
+        <v>787.411776530677</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1069.118384851047</v>
+        <v>800.1580152425054</v>
       </c>
       <c r="C42" t="n">
-        <v>879.7061105840106</v>
+        <v>610.7457409754691</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>449.9656247365008</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>276.4024208579153</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H42" t="n">
         <v>115.9747045751594</v>
@@ -7490,52 +7490,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>34.31465285444516</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K42" t="n">
-        <v>112.3287381944635</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2338702498417</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029032</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N42" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1652.36920027611</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S42" t="n">
-        <v>1473.294930842654</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T42" t="n">
-        <v>1473.294930842654</v>
+        <v>1312.63630260858</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.294930842654</v>
+        <v>1312.63630260858</v>
       </c>
       <c r="V42" t="n">
-        <v>1473.294930842654</v>
+        <v>1069.556584512214</v>
       </c>
       <c r="W42" t="n">
-        <v>1473.294930842654</v>
+        <v>800.1580152425054</v>
       </c>
       <c r="X42" t="n">
-        <v>1473.294930842654</v>
+        <v>800.1580152425054</v>
       </c>
       <c r="Y42" t="n">
-        <v>1247.654237777982</v>
+        <v>800.1580152425054</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>204.0671920298242</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C43" t="n">
-        <v>204.0671920298242</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>204.0671920298242</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>204.0671920298242</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>204.0671920298242</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
         <v>34.31465285444516</v>
@@ -7572,49 +7572,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="S43" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="T43" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="U43" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V43" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W43" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X43" t="n">
-        <v>204.0671920298242</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y43" t="n">
-        <v>204.0671920298242</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1035.6826938386</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="C44" t="n">
-        <v>1035.6826938386</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="D44" t="n">
-        <v>694.4986941999869</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E44" t="n">
-        <v>319.2674698953039</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F44" t="n">
-        <v>319.2674698953039</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G44" t="n">
-        <v>319.2674698953039</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K44" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
         <v>1650.639799716936</v>
@@ -7672,28 +7672,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V44" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W44" t="n">
-        <v>1413.548593210149</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X44" t="n">
-        <v>1413.548593210149</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="Y44" t="n">
-        <v>1413.548593210149</v>
+        <v>1374.423083302292</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>666.2505006086086</v>
+        <v>216.7524737220035</v>
       </c>
       <c r="C45" t="n">
-        <v>476.8382263415723</v>
+        <v>216.7524737220035</v>
       </c>
       <c r="D45" t="n">
-        <v>476.8382263415723</v>
+        <v>216.7524737220035</v>
       </c>
       <c r="E45" t="n">
-        <v>303.2750224629867</v>
+        <v>216.7524737220035</v>
       </c>
       <c r="F45" t="n">
-        <v>303.2750224629867</v>
+        <v>216.7524737220035</v>
       </c>
       <c r="G45" t="n">
-        <v>153.8059888862266</v>
+        <v>67.28344014524336</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31465285444516</v>
+        <v>67.28344014524336</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K45" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L45" t="n">
-        <v>498.4142537443595</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M45" t="n">
-        <v>679.5863020207058</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N45" t="n">
-        <v>1082.820066520717</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1395.953100567611</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.193464940061</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T45" t="n">
-        <v>1404.369481039355</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U45" t="n">
-        <v>1404.369481039355</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V45" t="n">
-        <v>1161.289762942989</v>
+        <v>931.2997304396881</v>
       </c>
       <c r="W45" t="n">
-        <v>891.8911936732809</v>
+        <v>661.9011611699794</v>
       </c>
       <c r="X45" t="n">
-        <v>891.8911936732809</v>
+        <v>442.3931667866758</v>
       </c>
       <c r="Y45" t="n">
-        <v>666.2505006086086</v>
+        <v>216.7524737220035</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>166.7191087416661</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>166.7191087416661</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>166.7191087416661</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
         <v>34.31465285444516</v>
@@ -7809,49 +7809,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M46" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N46" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="R46" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="S46" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="T46" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="U46" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V46" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W46" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X46" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y46" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8783,13 +8783,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O12" t="n">
-        <v>59.54645836938639</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3638740786793</v>
+        <v>102.1412644882571</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9011,10 +9011,10 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>44.6282192347058</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>301.77688131</v>
+        <v>106.1005567880641</v>
       </c>
       <c r="N15" t="n">
         <v>310.6138585746227</v>
@@ -9242,19 +9242,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.646382090491642</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>289.1252727825456</v>
+        <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9491,10 +9491,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>310.6138585746227</v>
+        <v>135.2351585535087</v>
       </c>
       <c r="O21" t="n">
-        <v>79.84408287020719</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.4093663997632</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
@@ -9725,19 +9725,19 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>217.8518962203989</v>
       </c>
       <c r="N24" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
-        <v>171.29779780172</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9971,10 +9971,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890793</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.1808494245542</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10193,13 +10193,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>67.15086399372845</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>301.77688131</v>
+        <v>197.5542717195782</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10439,7 +10439,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>297.9622500471686</v>
+        <v>206.3912489842004</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10667,10 +10667,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
-        <v>240.3045437566416</v>
+        <v>136.0819341662192</v>
       </c>
       <c r="M36" t="n">
         <v>301.77688131</v>
@@ -10682,10 +10682,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>173.4146410504032</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10904,7 +10904,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372811</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10916,13 +10916,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
-        <v>151.0001733008989</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11068,7 +11068,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>291.284769703356</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N41" t="n">
         <v>283.4008070189657</v>
@@ -11077,7 +11077,7 @@
         <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>208.5255628951206</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>87.44848849455063</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11305,7 +11305,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>291.284769703356</v>
+        <v>291.2847697033553</v>
       </c>
       <c r="N44" t="n">
         <v>283.4008070189657</v>
@@ -11375,7 +11375,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K45" t="n">
         <v>171.373473584151</v>
@@ -11384,10 +11384,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M45" t="n">
-        <v>106.1005567880655</v>
+        <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>310.6138585746227</v>
+        <v>135.2351585535091</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
@@ -23269,16 +23269,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>310.8396888280943</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>119.3167056202944</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>64.04334881948061</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.16622950718181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>24.58419038258738</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
         <v>224.1841888012565</v>
@@ -23475,7 +23475,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>92.75407313483947</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23503,10 +23503,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>149.7103396017497</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>332.7259392970341</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.1639724458418</v>
@@ -23560,7 +23560,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23576,22 +23576,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>184.1882356046044</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>80.84345120350704</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>106.0280105504073</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23670,13 +23670,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>160.0829940331247</v>
+        <v>151.1667353662676</v>
       </c>
       <c r="I16" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>24.58419038258714</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
         <v>224.1841888012565</v>
@@ -23709,7 +23709,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23740,7 +23740,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>344.4221370639637</v>
+        <v>302.0977412247682</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
         <v>216.1639724458418</v>
@@ -23794,7 +23794,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23813,25 +23813,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>131.4943203814378</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>61.91053974263335</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7006619981109</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
@@ -23946,16 +23946,16 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>214.6925701972567</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>109.2001591037167</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>67.09942898147959</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
         <v>250.0353723969745</v>
@@ -24034,7 +24034,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.64817367290092</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>51.24289368277479</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
@@ -24183,19 +24183,19 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6213336334641</v>
+        <v>208.2250141473113</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>65.91641081607554</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>53.87114742740397</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>282.8152131705638</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>120.1317533766769</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>113.5872863450729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,10 +24366,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>14.10223892236183</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
         <v>141.676141212225</v>
@@ -24387,7 +24387,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24417,10 +24417,10 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T25" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>212.0861385338496</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24445,19 +24445,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>292.4645079971874</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>196.9315096074158</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>50.54150226439691</v>
       </c>
       <c r="T27" t="n">
         <v>211.8662302997449</v>
@@ -24581,16 +24581,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.6037781130799</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -24621,10 +24621,10 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I28" t="n">
-        <v>100.0967924155299</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
         <v>174.3941919203111</v>
@@ -24663,10 +24663,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>214.6925701972567</v>
       </c>
       <c r="X28" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>217.1412728141684</v>
@@ -24682,13 +24682,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>171.1452725160653</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
@@ -24697,10 +24697,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>310.9034566092105</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>87.53162368346364</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.174964085266595</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -24855,13 +24855,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H31" t="n">
-        <v>155.7061618107481</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
         <v>174.3941919203111</v>
@@ -24900,13 +24900,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.1412728141684</v>
+        <v>209.9143876031826</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>239.9717255091906</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>253.6335076423961</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>1.248999361752027</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>37.47487682380003</v>
       </c>
     </row>
     <row r="34">
@@ -25077,10 +25077,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>14.10223892236183</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -25098,7 +25098,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J34" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
         <v>174.3941919203111</v>
@@ -25134,7 +25134,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25143,7 +25143,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.1412728141684</v>
+        <v>164.7126956982972</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
@@ -25168,13 +25168,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>91.71668326055448</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
@@ -25213,13 +25213,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>143.937757348582</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25235,13 +25235,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -25253,7 +25253,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>37.80619851916623</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>183.6552032631492</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>48.13434214827222</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25323,7 +25323,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>9.44430370175067</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25393,22 +25393,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>180.3375761743706</v>
+        <v>183.9261310740407</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>185.5090622027478</v>
@@ -25441,10 +25441,10 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.0353723969745</v>
@@ -25459,7 +25459,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>72.54204134950835</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>37.01293123320164</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25572,7 +25572,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R40" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0023972007068</v>
+        <v>97.8589968206966</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
@@ -25614,10 +25614,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>141.5231359220896</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
@@ -25636,19 +25636,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>297.4442715719998</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>160.9270880092576</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>24.16622950718195</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>76.98041785519342</v>
       </c>
       <c r="U42" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R43" t="n">
-        <v>174.3941919203111</v>
+        <v>167.1673067093251</v>
       </c>
       <c r="S43" t="n">
         <v>224.1841888012565</v>
@@ -25848,10 +25848,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>92.43687689154672</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>215.5748722061691</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>235.6837281773024</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
@@ -25927,7 +25927,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
@@ -25946,13 +25946,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>48.20435178561683</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>167.7962645016607</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
         <v>145.1826502507107</v>
@@ -26034,7 +26034,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>7.846470890097919</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.0550137836253</v>
@@ -26046,7 +26046,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.14329602706152</v>
+        <v>65.91641081607555</v>
       </c>
       <c r="R46" t="n">
         <v>174.3941919203111</v>
@@ -26085,7 +26085,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577795.3948784075</v>
+        <v>577795.3948784074</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>577795.3948784074</v>
+        <v>577795.3948784072</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>577795.3948784074</v>
+        <v>577795.3948784075</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>577795.3948784071</v>
+        <v>577795.3948784074</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595304.0967441105</v>
+      </c>
+      <c r="C2" t="n">
         <v>595304.0967441103</v>
       </c>
-      <c r="C2" t="n">
-        <v>595304.0967441102</v>
-      </c>
       <c r="D2" t="n">
-        <v>595304.0967441103</v>
+        <v>595304.0967441107</v>
       </c>
       <c r="E2" t="n">
-        <v>338123.8689204557</v>
+        <v>338123.868920456</v>
       </c>
       <c r="F2" t="n">
-        <v>338123.8689204557</v>
+        <v>338123.8689204559</v>
       </c>
       <c r="G2" t="n">
-        <v>338123.8689204557</v>
+        <v>338123.868920456</v>
       </c>
       <c r="H2" t="n">
         <v>338123.8689204556</v>
@@ -26340,22 +26340,22 @@
         <v>338123.8689204557</v>
       </c>
       <c r="K2" t="n">
-        <v>338123.8689204555</v>
+        <v>338123.8689204558</v>
       </c>
       <c r="L2" t="n">
-        <v>338123.8689204556</v>
+        <v>338123.868920456</v>
       </c>
       <c r="M2" t="n">
         <v>338123.8689204557</v>
       </c>
       <c r="N2" t="n">
+        <v>338123.868920456</v>
+      </c>
+      <c r="O2" t="n">
+        <v>338123.8689204555</v>
+      </c>
+      <c r="P2" t="n">
         <v>338123.8689204558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>338123.8689204556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>338123.8689204557</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174924</v>
+        <v>497053.1518174925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.031184219755233e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>39623.56226194713</v>
       </c>
       <c r="F4" t="n">
-        <v>39623.56226194712</v>
+        <v>39623.56226194713</v>
       </c>
       <c r="G4" t="n">
         <v>39623.56226194713</v>
@@ -26441,7 +26441,7 @@
         <v>39623.56226194713</v>
       </c>
       <c r="J4" t="n">
-        <v>39623.56226194713</v>
+        <v>39623.56226194714</v>
       </c>
       <c r="K4" t="n">
         <v>39623.56226194713</v>
@@ -26456,10 +26456,10 @@
         <v>39623.56226194713</v>
       </c>
       <c r="O4" t="n">
-        <v>39623.56226194714</v>
+        <v>39623.56226194713</v>
       </c>
       <c r="P4" t="n">
-        <v>39623.56226194714</v>
+        <v>39623.56226194713</v>
       </c>
     </row>
     <row r="5">
@@ -26484,25 +26484,25 @@
         <v>36091.33751189045</v>
       </c>
       <c r="G5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="I5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189046</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142019.3674636551</v>
+        <v>141974.7036216033</v>
       </c>
       <c r="C6" t="n">
-        <v>142019.367463655</v>
+        <v>141974.7036216031</v>
       </c>
       <c r="D6" t="n">
-        <v>142019.3674636551</v>
+        <v>141974.7036216035</v>
       </c>
       <c r="E6" t="n">
-        <v>-234644.1826708742</v>
+        <v>-244214.0401360243</v>
       </c>
       <c r="F6" t="n">
-        <v>262408.9691466182</v>
+        <v>252839.1116814681</v>
       </c>
       <c r="G6" t="n">
-        <v>262408.9691466181</v>
+        <v>252839.1116814682</v>
       </c>
       <c r="H6" t="n">
-        <v>262408.969146618</v>
+        <v>252839.1116814676</v>
       </c>
       <c r="I6" t="n">
-        <v>262408.969146618</v>
+        <v>252839.1116814678</v>
       </c>
       <c r="J6" t="n">
-        <v>262408.9691466182</v>
+        <v>252839.1116814679</v>
       </c>
       <c r="K6" t="n">
-        <v>262408.9691466179</v>
+        <v>252839.111681468</v>
       </c>
       <c r="L6" t="n">
-        <v>262408.969146618</v>
+        <v>252839.1116814682</v>
       </c>
       <c r="M6" t="n">
-        <v>155517.1097723788</v>
+        <v>145947.2523072285</v>
       </c>
       <c r="N6" t="n">
-        <v>262408.9691466182</v>
+        <v>252839.1116814682</v>
       </c>
       <c r="O6" t="n">
-        <v>262408.969146618</v>
+        <v>252839.1116814677</v>
       </c>
       <c r="P6" t="n">
-        <v>262408.9691466182</v>
+        <v>252839.111681468</v>
       </c>
     </row>
   </sheetData>
@@ -26752,13 +26752,13 @@
         <v>459.2752909409237</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409237</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="J3" t="n">
         <v>459.2752909409236</v>
@@ -26773,13 +26773,13 @@
         <v>459.2752909409236</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="O3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="P3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
     </row>
     <row r="4">
@@ -26807,31 +26807,31 @@
         <v>428.9331606805646</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="I4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="J4" t="n">
+        <v>428.9331606805647</v>
+      </c>
+      <c r="K4" t="n">
+        <v>428.9331606805647</v>
+      </c>
+      <c r="L4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="M4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="N4" t="n">
         <v>428.9331606805645</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>428.9331606805645</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>428.9331606805645</v>
-      </c>
-      <c r="M4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="N4" t="n">
-        <v>428.9331606805646</v>
-      </c>
-      <c r="O4" t="n">
-        <v>428.9331606805646</v>
-      </c>
-      <c r="P4" t="n">
-        <v>428.9331606805646</v>
       </c>
     </row>
   </sheetData>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.346708623213883e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -31755,19 +31755,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K11" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M11" t="n">
         <v>324.1998891675596</v>
@@ -31776,10 +31776,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q11" t="n">
         <v>199.3831741692328</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H12" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
@@ -31852,10 +31852,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O12" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P12" t="n">
         <v>188.640826575339</v>
@@ -31864,13 +31864,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U12" t="n">
         <v>0.06499178645390431</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H13" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J13" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31931,7 +31931,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
@@ -31940,16 +31940,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R13" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U13" t="n">
         <v>0.0451746187810745</v>
@@ -32238,16 +32238,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O17" t="n">
         <v>311.0863102573771</v>
@@ -32256,16 +32256,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R17" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I18" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
         <v>256.9298629953381</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32414,7 +32414,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R19" t="n">
         <v>37.2389440818657</v>
@@ -32426,7 +32426,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32703,43 +32703,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O23" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P23" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H24" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N24" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O24" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P24" t="n">
         <v>188.640826575339</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H25" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I25" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32879,7 +32879,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N25" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O25" t="n">
         <v>117.0624954680243</v>
@@ -32888,19 +32888,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R25" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S25" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,19 +32940,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H26" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J26" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K26" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
         <v>324.1998891675596</v>
@@ -32961,10 +32961,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O26" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P26" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
         <v>199.3831741692328</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H27" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I27" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
@@ -33037,10 +33037,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N27" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O27" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P27" t="n">
         <v>188.640826575339</v>
@@ -33049,13 +33049,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S27" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T27" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
         <v>0.06499178645390431</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I28" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
@@ -33116,7 +33116,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N28" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O28" t="n">
         <v>117.0624954680243</v>
@@ -33125,16 +33125,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R28" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S28" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T28" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
         <v>0.0451746187810745</v>
@@ -33177,19 +33177,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H29" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J29" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K29" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
         <v>324.1998891675596</v>
@@ -33198,10 +33198,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O29" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P29" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
         <v>199.3831741692328</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H30" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I30" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
@@ -33274,10 +33274,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N30" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O30" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P30" t="n">
         <v>188.640826575339</v>
@@ -33286,13 +33286,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S30" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T30" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
         <v>0.06499178645390431</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H31" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I31" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
@@ -33353,7 +33353,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N31" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O31" t="n">
         <v>117.0624954680243</v>
@@ -33362,16 +33362,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R31" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S31" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T31" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
         <v>0.0451746187810745</v>
@@ -33414,19 +33414,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H32" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J32" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K32" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
         <v>324.1998891675596</v>
@@ -33435,10 +33435,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O32" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P32" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
         <v>199.3831741692328</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H33" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I33" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
@@ -33511,10 +33511,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N33" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O33" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P33" t="n">
         <v>188.640826575339</v>
@@ -33523,13 +33523,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S33" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T33" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
         <v>0.06499178645390431</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H34" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I34" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
@@ -33590,7 +33590,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N34" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O34" t="n">
         <v>117.0624954680243</v>
@@ -33599,16 +33599,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R34" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S34" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T34" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
         <v>0.0451746187810745</v>
@@ -33651,19 +33651,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H35" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J35" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
         <v>324.1998891675596</v>
@@ -33672,10 +33672,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O35" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P35" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
         <v>199.3831741692328</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H36" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I36" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
@@ -33748,10 +33748,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N36" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O36" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P36" t="n">
         <v>188.640826575339</v>
@@ -33760,13 +33760,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S36" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T36" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
         <v>0.06499178645390431</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H37" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I37" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
@@ -33827,7 +33827,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N37" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O37" t="n">
         <v>117.0624954680243</v>
@@ -33836,16 +33836,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R37" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S37" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T37" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
         <v>0.0451746187810745</v>
@@ -33888,43 +33888,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H38" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I38" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J38" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L38" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N38" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O38" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P38" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R38" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S38" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T38" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U38" t="n">
         <v>0.1477066262322567</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H39" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I39" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L39" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M39" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N39" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O39" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P39" t="n">
         <v>188.640826575339</v>
@@ -33997,16 +33997,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S39" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T39" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H40" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I40" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L40" t="n">
         <v>123.1309525909486</v>
@@ -34064,7 +34064,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N40" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O40" t="n">
         <v>117.0624954680243</v>
@@ -34073,19 +34073,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R40" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S40" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T40" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,43 +34125,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H41" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I41" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J41" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K41" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L41" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N41" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O41" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P41" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q41" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R41" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S41" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T41" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U41" t="n">
         <v>0.1477066262322567</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H42" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I42" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J42" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L42" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M42" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N42" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O42" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P42" t="n">
         <v>188.640826575339</v>
@@ -34234,16 +34234,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R42" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S42" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T42" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H43" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I43" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J43" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K43" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L43" t="n">
         <v>123.1309525909486</v>
@@ -34301,7 +34301,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N43" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O43" t="n">
         <v>117.0624954680243</v>
@@ -34310,19 +34310,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R43" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S43" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T43" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,43 +34362,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H44" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I44" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J44" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K44" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L44" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M44" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N44" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O44" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P44" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q44" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R44" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S44" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T44" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U44" t="n">
         <v>0.1477066262322567</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H45" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I45" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J45" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K45" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L45" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M45" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N45" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O45" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P45" t="n">
         <v>188.640826575339</v>
@@ -34471,16 +34471,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R45" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S45" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T45" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H46" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I46" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J46" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K46" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L46" t="n">
         <v>123.1309525909486</v>
@@ -34538,7 +34538,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N46" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O46" t="n">
         <v>117.0624954680243</v>
@@ -34547,19 +34547,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R46" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S46" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T46" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M11" t="n">
         <v>334.4622543336424</v>
@@ -35424,13 +35424,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M12" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O12" t="n">
-        <v>120.6196694648272</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P12" t="n">
-        <v>231.5559236085354</v>
+        <v>127.3333140181132</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M13" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P13" t="n">
         <v>19.62327613144092</v>
@@ -35731,10 +35731,10 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L15" t="n">
-        <v>90.08643512996142</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M15" t="n">
-        <v>378.678393487941</v>
+        <v>183.0020689660051</v>
       </c>
       <c r="N15" t="n">
         <v>407.3068328282941</v>
@@ -35895,7 +35895,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O17" t="n">
         <v>277.1250097811783</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
-        <v>366.0267849604867</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
-        <v>407.3068328282941</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M19" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>407.3068328282941</v>
+        <v>231.92813280718</v>
       </c>
       <c r="O21" t="n">
-        <v>140.9172939656481</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P21" t="n">
         <v>231.5559236085354</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K23" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M23" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P23" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L24" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M24" t="n">
-        <v>378.6783934879409</v>
+        <v>294.7534083983399</v>
       </c>
       <c r="N24" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
-        <v>232.3710088971608</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P24" t="n">
         <v>231.5559236085354</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M25" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K26" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L26" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M26" t="n">
         <v>334.4622543336424</v>
@@ -36609,13 +36609,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O26" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P26" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M27" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189354</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.50448190323659</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,19 +36755,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M28" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P28" t="n">
         <v>19.62327613144092</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K29" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L29" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M29" t="n">
         <v>334.4622543336424</v>
@@ -36846,13 +36846,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O29" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P29" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K30" t="n">
-        <v>58.50448190323679</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M30" t="n">
-        <v>378.6783934879409</v>
+        <v>274.4557838975192</v>
       </c>
       <c r="N30" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
         <v>316.2959939867616</v>
@@ -36992,19 +36992,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M31" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P31" t="n">
         <v>19.62327613144092</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K32" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L32" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M32" t="n">
         <v>334.4622543336424</v>
@@ -37083,13 +37083,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O32" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P32" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N33" t="n">
-        <v>394.65522430084</v>
+        <v>303.0842232378718</v>
       </c>
       <c r="O33" t="n">
         <v>316.2959939867616</v>
@@ -37168,7 +37168,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M34" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P34" t="n">
         <v>19.62327613144092</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K35" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L35" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M35" t="n">
         <v>334.4622543336424</v>
@@ -37320,13 +37320,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P35" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
-        <v>285.7627596518971</v>
+        <v>181.5401500614749</v>
       </c>
       <c r="M36" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>198.6066905802593</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M37" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P37" t="n">
         <v>19.62327613144092</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K38" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L38" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M38" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P38" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K39" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323646</v>
       </c>
       <c r="L39" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M39" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
-        <v>212.0733843963397</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P39" t="n">
         <v>231.5559236085354</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M40" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M41" t="n">
-        <v>334.4622543336429</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P41" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422083</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K42" t="n">
-        <v>78.80210640405896</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N42" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063587</v>
       </c>
       <c r="O42" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L43" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M43" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N43" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O43" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P43" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
-        <v>334.4622543336429</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N44" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P44" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M45" t="n">
-        <v>183.0020689660064</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>407.306832828294</v>
+        <v>231.9281328071805</v>
       </c>
       <c r="O45" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L46" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M46" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N46" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O46" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
